--- a/Greek_to_All_Tokens.xlsx
+++ b/Greek_to_All_Tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\ReligionDH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC04657-30B3-48BE-BD7F-916E8B459B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910DC1FA-EE8B-44E4-8D54-EB6922C831BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{448942CC-434F-40E4-A309-1734A0721C25}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="20760" windowHeight="11190" xr2:uid="{448942CC-434F-40E4-A309-1734A0721C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Century </t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t xml:space="preserve">Percentage </t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>Number of “Greek” lexemes appearing for the first time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>accumulated %</t>
   </si>
 </sst>
 </file>
@@ -155,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -178,6 +190,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B40842C-4D51-4706-A632-A3F9AF03A7A8}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +528,7 @@
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +541,20 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -531,8 +568,22 @@
         <f>B2/C2*100</f>
         <v>1.3349272763498705</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <f>G2</f>
+        <v>32</v>
+      </c>
+      <c r="I2" s="12">
+        <f>H2/$H$18</f>
+        <v>1.7679558011049725E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>4</v>
       </c>
@@ -546,8 +597,22 @@
         <f t="shared" ref="D3:D19" si="0">B3/C3*100</f>
         <v>1.8552148811445215</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="10">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11">
+        <v>361</v>
+      </c>
+      <c r="H3">
+        <f>G3+G2</f>
+        <v>393</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I18" si="1">H3/$H$18</f>
+        <v>0.21712707182320443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -561,8 +626,22 @@
         <f t="shared" si="0"/>
         <v>1.4877734256215154</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11">
+        <v>133</v>
+      </c>
+      <c r="H4">
+        <f>G4+G3+G2</f>
+        <v>526</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="1"/>
+        <v>0.29060773480662982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>6</v>
       </c>
@@ -576,8 +655,22 @@
         <f t="shared" si="0"/>
         <v>1.6448665554846007</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="10">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11">
+        <v>307</v>
+      </c>
+      <c r="H5">
+        <f>G5+G4+G3+G2</f>
+        <v>833</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
+        <v>0.46022099447513815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>7</v>
       </c>
@@ -591,8 +684,22 @@
         <f t="shared" si="0"/>
         <v>1.4997899820189069</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="10">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11">
+        <v>149</v>
+      </c>
+      <c r="H6">
+        <f>G6+G5+G4+G3+G2</f>
+        <v>982</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.54254143646408837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -606,8 +713,22 @@
         <f t="shared" si="0"/>
         <v>1.6910969089665797</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="10">
+        <v>8</v>
+      </c>
+      <c r="G7" s="11">
+        <v>67</v>
+      </c>
+      <c r="H7">
+        <f>G7+G6+G5+G4+G3+G2</f>
+        <v>1049</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.57955801104972371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>9</v>
       </c>
@@ -621,8 +742,22 @@
         <f t="shared" si="0"/>
         <v>1.3495786037587645</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="10">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11">
+        <v>66</v>
+      </c>
+      <c r="H8">
+        <f>G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1115</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.61602209944751385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>10</v>
       </c>
@@ -636,8 +771,22 @@
         <f t="shared" si="0"/>
         <v>2.0312743421633015</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="10">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11">
+        <v>624</v>
+      </c>
+      <c r="H9">
+        <f>G9+G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1739</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9607734806629834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>11</v>
       </c>
@@ -651,8 +800,22 @@
         <f t="shared" si="0"/>
         <v>1.6928453811652617</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="10">
+        <v>11</v>
+      </c>
+      <c r="G10" s="11">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f>G10+G9+G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1745</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.96408839779005528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>12</v>
       </c>
@@ -666,8 +829,22 @@
         <f t="shared" si="0"/>
         <v>1.9975857431781361</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="10">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f>G11+G10+G9+G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1748</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.96574585635359111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>13</v>
       </c>
@@ -681,8 +858,22 @@
         <f t="shared" si="0"/>
         <v>1.897272311773492</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="10">
+        <v>13</v>
+      </c>
+      <c r="G12" s="11">
+        <v>49</v>
+      </c>
+      <c r="H12">
+        <f>G12+G11+G10+G9+G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1797</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99281767955801103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>14</v>
       </c>
@@ -696,8 +887,22 @@
         <f t="shared" si="0"/>
         <v>1.1828537557294021</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="10">
+        <v>14</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>G13+G12+G11+G10+G9+G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1799</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99392265193370166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>16</v>
       </c>
@@ -711,8 +916,22 @@
         <f t="shared" si="0"/>
         <v>1.1676483562105919</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="10">
+        <v>16</v>
+      </c>
+      <c r="G14" s="11">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f>G14+G13+G12+G11+G10+G9+G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1803</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99613259668508292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>17</v>
       </c>
@@ -726,8 +945,22 @@
         <f t="shared" si="0"/>
         <v>1.1079860223301798</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="10">
+        <v>17</v>
+      </c>
+      <c r="G15" s="11">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f>G15+G14+G13+G12+G11+G10+G9+G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1805</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99723756906077343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -741,8 +974,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="10">
+        <v>19</v>
+      </c>
+      <c r="G16" s="11">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f>G16+G15+G14+G13+G12+G11+G10+G9+G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1807</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99834254143646406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>19</v>
       </c>
@@ -756,8 +1003,22 @@
         <f t="shared" si="0"/>
         <v>1.9907349442844624</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="10">
+        <v>20</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f>G17+G16+G15+G14+G13+G12+G11+G10+G9+G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1808</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99889502762430937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>20</v>
       </c>
@@ -771,8 +1032,22 @@
         <f t="shared" si="0"/>
         <v>1.2432487516559665</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="10">
+        <v>21</v>
+      </c>
+      <c r="G18" s="11">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f>G18+G17+G16+G15+G14+G13+G12+G11+G10+G9+G8+G7+G6+G5+G4+G3+G2</f>
+        <v>1810</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>21</v>
       </c>
